--- a/Metro/Data/metro.xlsx
+++ b/Metro/Data/metro.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dokumentumok\Visual Studio 2019\Repos\borosbence\Metro\Metro\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bence\Dokumentumok\Visual Studio 2022\Repos\GitHub\Metro-WPF\Metro\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B127F550-6578-4973-AEEA-926768AA4607}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA069238-ED09-4484-A932-CF5F7B2E1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{AC057037-8BB0-47F0-8CEE-40D169128A44}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC057037-8BB0-47F0-8CEE-40D169128A44}"/>
   </bookViews>
   <sheets>
     <sheet name="Állomások" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
   <si>
     <t>Állomás</t>
   </si>
@@ -271,25 +271,16 @@
     <t>Bosnyák tér</t>
   </si>
   <si>
-    <t>Népszínház utca</t>
-  </si>
-  <si>
     <t>Bocskai út</t>
   </si>
   <si>
     <t>Kelenföldi pályaudvar</t>
   </si>
   <si>
-    <t>Tétényi tér</t>
-  </si>
-  <si>
     <t>Szent Gellért tér</t>
   </si>
   <si>
     <t>Dózsa György út (M4)</t>
-  </si>
-  <si>
-    <t>Dózsa György út (M3)</t>
   </si>
 </sst>
 </file>
@@ -342,11 +333,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -365,9 +354,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 – 2022 téma">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -405,7 +394,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -511,7 +500,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -653,7 +642,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -661,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E15EE0-F8EF-4ECC-8876-001597F4B026}">
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A56" sqref="A56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -678,10 +667,10 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>53</v>
       </c>
     </row>
@@ -690,10 +679,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>650</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +701,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>0</v>
+        <v>575</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>643</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +712,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>455</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,10 +734,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -764,362 +753,362 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B9">
-        <v>360</v>
+        <v>1170</v>
       </c>
       <c r="C9">
-        <v>1044</v>
+        <v>340</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B10">
-        <v>1170</v>
+        <v>570</v>
       </c>
       <c r="C10">
-        <v>340</v>
+        <v>928</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B11">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>731</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B12">
-        <v>484</v>
+        <v>138</v>
       </c>
       <c r="C12">
-        <v>731</v>
+        <v>766</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B13">
-        <v>138</v>
+        <v>483</v>
       </c>
       <c r="C13">
-        <v>766</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>84</v>
+        <v>12</v>
       </c>
       <c r="B14">
-        <v>0</v>
+        <v>865</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>83</v>
+        <v>13</v>
       </c>
       <c r="B15">
-        <v>1050</v>
+        <v>483</v>
       </c>
       <c r="C15">
-        <v>630</v>
+        <v>817</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>577</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>194</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>496</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>910</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>333</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B19">
-        <v>496</v>
+        <v>660</v>
       </c>
       <c r="C19">
-        <v>910</v>
+        <v>112</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1083</v>
       </c>
       <c r="C20">
-        <v>0</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>798</v>
       </c>
       <c r="C21">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>1125</v>
       </c>
       <c r="C22">
-        <v>0</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>806</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>878</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B24">
-        <v>1125</v>
+        <v>528</v>
       </c>
       <c r="C24">
-        <v>555</v>
+        <v>878</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>20</v>
+        <v>79</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B26">
-        <v>528</v>
+        <v>887</v>
       </c>
       <c r="C26">
-        <v>878</v>
+        <v>777</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>23</v>
       </c>
       <c r="B27">
-        <v>226</v>
+        <v>729</v>
       </c>
       <c r="C27">
-        <v>1075</v>
+        <v>489</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B28">
-        <v>887</v>
+        <v>411</v>
       </c>
       <c r="C28">
-        <v>777</v>
+        <v>661</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1191</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B30">
-        <v>411</v>
+        <v>483</v>
       </c>
       <c r="C30">
-        <v>661</v>
+        <v>498</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B31">
-        <v>0</v>
+        <v>869</v>
       </c>
       <c r="C31">
-        <v>0</v>
+        <v>348</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B32">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B34">
-        <v>398</v>
+        <v>752</v>
       </c>
       <c r="C34">
-        <v>1006</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>483</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>575</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B36">
-        <v>0</v>
+        <v>656</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>564</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>78</v>
+        <v>33</v>
       </c>
       <c r="B37">
-        <v>806</v>
+        <v>616</v>
       </c>
       <c r="C37">
-        <v>878</v>
+        <v>603</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>1218</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B39">
-        <v>0</v>
+        <v>1129</v>
       </c>
       <c r="C39">
-        <v>0</v>
+        <v>712</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B40">
-        <v>0</v>
+        <v>974</v>
       </c>
       <c r="C40">
-        <v>0</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B41">
-        <v>1218</v>
+        <v>1030</v>
       </c>
       <c r="C41">
         <v>712</v>
@@ -1127,167 +1116,123 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B42">
-        <v>1129</v>
+        <v>722</v>
       </c>
       <c r="C42">
-        <v>712</v>
+        <v>878</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>36</v>
+        <v>76</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>1170</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>450</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B44">
-        <v>1030</v>
+        <v>611</v>
       </c>
       <c r="C44">
-        <v>712</v>
+        <v>969</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="B45">
-        <v>298</v>
+        <v>832</v>
       </c>
       <c r="C45">
-        <v>1075</v>
+        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B46">
-        <v>722</v>
+        <v>188</v>
       </c>
       <c r="C46">
-        <v>878</v>
+        <v>661</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B47">
-        <v>1170</v>
+        <v>440</v>
       </c>
       <c r="C47">
-        <v>450</v>
+        <v>964</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B48">
-        <v>0</v>
+        <v>360</v>
       </c>
       <c r="C48">
-        <v>0</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>1018</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>112</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B50">
-        <v>188</v>
+        <v>880</v>
       </c>
       <c r="C50">
-        <v>661</v>
+        <v>112</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>82</v>
+        <v>46</v>
       </c>
       <c r="B51">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="C51">
-        <v>964</v>
+        <v>764</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B52">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="C52">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>44</v>
-      </c>
-      <c r="B53">
-        <v>0</v>
-      </c>
-      <c r="C53">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>45</v>
-      </c>
-      <c r="B54">
-        <v>0</v>
-      </c>
-      <c r="C54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>46</v>
-      </c>
-      <c r="B55">
-        <v>0</v>
-      </c>
-      <c r="C55">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>47</v>
-      </c>
-      <c r="B56">
-        <v>0</v>
-      </c>
-      <c r="C56">
-        <v>0</v>
+        <v>525</v>
       </c>
     </row>
   </sheetData>
@@ -1300,8 +1245,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DD84C0-DAF0-4822-B763-151839F45428}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="M14" sqref="M14"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="P4" sqref="P4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1407,7 +1352,7 @@
       <c r="D2" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" t="s">
         <v>33</v>
       </c>
       <c r="F2" t="s">
@@ -1428,7 +1373,7 @@
       <c r="K2" t="s">
         <v>40</v>
       </c>
-      <c r="L2" s="3" t="s">
+      <c r="L2" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1540,13 +1485,13 @@
         <v>50</v>
       </c>
       <c r="B5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C5" t="s">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
@@ -1564,13 +1509,13 @@
         <v>38</v>
       </c>
       <c r="J5" t="s">
-        <v>78</v>
+        <v>20</v>
       </c>
       <c r="K5" t="s">
         <v>22</v>
       </c>
       <c r="L5" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="M5" t="s">
         <v>75</v>

--- a/Metro/Data/metro.xlsx
+++ b/Metro/Data/metro.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bence\Dokumentumok\Visual Studio 2022\Repos\GitHub\Metro-WPF\Metro\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA069238-ED09-4484-A932-CF5F7B2E1E7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FF64733-D6C2-4A13-BB02-86EB31429F23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{AC057037-8BB0-47F0-8CEE-40D169128A44}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{AC057037-8BB0-47F0-8CEE-40D169128A44}"/>
   </bookViews>
   <sheets>
     <sheet name="Állomások" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="76">
   <si>
     <t>Állomás</t>
   </si>
@@ -163,9 +163,6 @@
     <t>Széll Kálmán tér</t>
   </si>
   <si>
-    <t>Szent Gellért tér – Műegyetem</t>
-  </si>
-  <si>
     <t>Újbuda-központ</t>
   </si>
   <si>
@@ -262,25 +259,10 @@
     <t>20. megálló</t>
   </si>
   <si>
-    <t>Hungária körút</t>
-  </si>
-  <si>
-    <t>Róna utca</t>
-  </si>
-  <si>
-    <t>Bosnyák tér</t>
-  </si>
-  <si>
-    <t>Bocskai út</t>
-  </si>
-  <si>
-    <t>Kelenföldi pályaudvar</t>
-  </si>
-  <si>
-    <t>Szent Gellért tér</t>
-  </si>
-  <si>
-    <t>Dózsa György út (M4)</t>
+    <t>Kelenföld vasútállomás</t>
+  </si>
+  <si>
+    <t>Szent Gellért tér - Műegyetem</t>
   </si>
 </sst>
 </file>
@@ -650,10 +632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73E15EE0-F8EF-4ECC-8876-001597F4B026}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:C49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView topLeftCell="A14" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -668,10 +650,10 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>52</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -679,10 +661,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>483</v>
+        <v>364</v>
       </c>
       <c r="C2">
-        <v>650</v>
+        <v>566</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -690,10 +672,10 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>623</v>
+        <v>397</v>
       </c>
       <c r="C3">
-        <v>772</v>
+        <v>644</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -701,10 +683,10 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>575</v>
+        <v>366</v>
       </c>
       <c r="C4">
-        <v>643</v>
+        <v>595</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -712,10 +694,10 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>762</v>
+        <v>475</v>
       </c>
       <c r="C5">
-        <v>455</v>
+        <v>486</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -723,10 +705,10 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="C6">
-        <v>661</v>
+        <v>532</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
@@ -734,10 +716,10 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>298</v>
+        <v>229</v>
       </c>
       <c r="C7">
-        <v>1075</v>
+        <v>916</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
@@ -745,315 +727,315 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>751</v>
+        <v>465</v>
       </c>
       <c r="C8">
-        <v>772</v>
+        <v>618</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>77</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>1170</v>
+        <v>459</v>
       </c>
       <c r="C9">
-        <v>340</v>
+        <v>723</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>570</v>
+        <v>361</v>
       </c>
       <c r="C10">
-        <v>928</v>
+        <v>613</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>483</v>
+        <v>176</v>
       </c>
       <c r="C11">
-        <v>731</v>
+        <v>586</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>138</v>
+        <v>417</v>
       </c>
       <c r="C12">
-        <v>766</v>
+        <v>363</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>483</v>
+        <v>718</v>
       </c>
       <c r="C13">
-        <v>410</v>
+        <v>860</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>865</v>
+        <v>372</v>
       </c>
       <c r="C14">
-        <v>1039</v>
+        <v>655</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>483</v>
+        <v>456</v>
       </c>
       <c r="C15">
-        <v>817</v>
+        <v>234</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B16">
-        <v>577</v>
+        <v>380</v>
       </c>
       <c r="C16">
-        <v>194</v>
+        <v>721</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B17">
-        <v>496</v>
+        <v>440</v>
       </c>
       <c r="C17">
-        <v>910</v>
+        <v>289</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B18">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="C18">
-        <v>333</v>
+        <v>136</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B19">
-        <v>660</v>
+        <v>811</v>
       </c>
       <c r="C19">
-        <v>112</v>
+        <v>910</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B20">
-        <v>1083</v>
+        <v>502</v>
       </c>
       <c r="C20">
-        <v>1039</v>
+        <v>459</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B21">
-        <v>798</v>
+        <v>507</v>
       </c>
       <c r="C21">
-        <v>420</v>
+        <v>632</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>75</v>
+        <v>21</v>
       </c>
       <c r="B22">
-        <v>1125</v>
+        <v>411</v>
       </c>
       <c r="C22">
-        <v>555</v>
+        <v>690</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="B23">
-        <v>806</v>
+        <v>157</v>
       </c>
       <c r="C23">
-        <v>878</v>
+        <v>925</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B24">
-        <v>528</v>
+        <v>533</v>
       </c>
       <c r="C24">
-        <v>878</v>
+        <v>591</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>79</v>
+        <v>23</v>
       </c>
       <c r="B25">
-        <v>226</v>
+        <v>454</v>
       </c>
       <c r="C25">
-        <v>1075</v>
+        <v>507</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B26">
-        <v>887</v>
+        <v>310</v>
       </c>
       <c r="C26">
-        <v>777</v>
+        <v>540</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B27">
-        <v>729</v>
+        <v>955</v>
       </c>
       <c r="C27">
-        <v>489</v>
+        <v>928</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B28">
-        <v>411</v>
+        <v>397</v>
       </c>
       <c r="C28">
-        <v>661</v>
+        <v>430</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B29">
-        <v>1191</v>
+        <v>594</v>
       </c>
       <c r="C29">
-        <v>1039</v>
+        <v>410</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B30">
-        <v>483</v>
+        <v>317</v>
       </c>
       <c r="C30">
-        <v>498</v>
+        <v>801</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B31">
-        <v>869</v>
+        <v>580</v>
       </c>
       <c r="C31">
-        <v>348</v>
+        <v>785</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B32">
-        <v>398</v>
+        <v>639</v>
       </c>
       <c r="C32">
-        <v>1006</v>
+        <v>818</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B33">
-        <v>651</v>
+        <v>369</v>
       </c>
       <c r="C33">
-        <v>1010</v>
+        <v>494</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B34">
-        <v>752</v>
+        <v>416</v>
       </c>
       <c r="C34">
-        <v>1039</v>
+        <v>545</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B35">
-        <v>483</v>
+        <v>390</v>
       </c>
       <c r="C35">
-        <v>575</v>
+        <v>571</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B36">
-        <v>656</v>
+        <v>873</v>
       </c>
       <c r="C36">
         <v>564</v>
@@ -1061,178 +1043,145 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B37">
-        <v>616</v>
+        <v>775</v>
       </c>
       <c r="C37">
-        <v>603</v>
+        <v>580</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B38">
-        <v>1218</v>
+        <v>756</v>
       </c>
       <c r="C38">
-        <v>712</v>
+        <v>881</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B39">
-        <v>1129</v>
+        <v>687</v>
       </c>
       <c r="C39">
-        <v>712</v>
+        <v>590</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B40">
-        <v>974</v>
+        <v>471</v>
       </c>
       <c r="C40">
-        <v>1039</v>
+        <v>659</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B41">
-        <v>1030</v>
+        <v>516</v>
       </c>
       <c r="C41">
-        <v>712</v>
+        <v>753</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B42">
-        <v>722</v>
+        <v>528</v>
       </c>
       <c r="C42">
-        <v>878</v>
+        <v>429</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>76</v>
+        <v>41</v>
       </c>
       <c r="B43">
-        <v>1170</v>
+        <v>175</v>
       </c>
       <c r="C43">
-        <v>450</v>
+        <v>527</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>39</v>
+        <v>75</v>
       </c>
       <c r="B44">
-        <v>611</v>
+        <v>362</v>
       </c>
       <c r="C44">
-        <v>969</v>
+        <v>750</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B45">
+        <v>310</v>
+      </c>
+      <c r="C45">
         <v>832</v>
-      </c>
-      <c r="C45">
-        <v>385</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B46">
-        <v>188</v>
+        <v>582</v>
       </c>
       <c r="C46">
-        <v>661</v>
+        <v>31</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>80</v>
+        <v>44</v>
       </c>
       <c r="B47">
-        <v>440</v>
+        <v>520</v>
       </c>
       <c r="C47">
-        <v>964</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B48">
-        <v>360</v>
+        <v>338</v>
       </c>
       <c r="C48">
-        <v>1044</v>
+        <v>619</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B49">
-        <v>1018</v>
+        <v>437</v>
       </c>
       <c r="C49">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>45</v>
-      </c>
-      <c r="B50">
-        <v>880</v>
-      </c>
-      <c r="C50">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51">
-        <v>454</v>
-      </c>
-      <c r="C51">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52">
-        <v>692</v>
-      </c>
-      <c r="C52">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
   </sheetData>
@@ -1245,27 +1194,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2DD84C0-DAF0-4822-B763-151839F45428}">
   <dimension ref="A1:U5"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="P4" sqref="P4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="6.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="28.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="20.140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.28515625" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.85546875" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="15" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="18.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="24.7109375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12" bestFit="1" customWidth="1"/>
@@ -1276,75 +1225,75 @@
   <sheetData>
     <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="P1" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="Q1" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="R1" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="S1" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="T1" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="U1" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -1359,7 +1308,7 @@
         <v>32</v>
       </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
         <v>23</v>
@@ -1379,7 +1328,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" t="s">
         <v>10</v>
@@ -1417,87 +1366,87 @@
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s">
+        <v>16</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>31</v>
+      </c>
+      <c r="J4" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>39</v>
+      </c>
+      <c r="P4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>12</v>
+      </c>
+      <c r="S4" t="s">
+        <v>36</v>
+      </c>
+      <c r="T4" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" t="s">
         <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
-        <v>30</v>
-      </c>
-      <c r="G4" t="s">
-        <v>29</v>
-      </c>
-      <c r="H4" t="s">
-        <v>39</v>
-      </c>
-      <c r="I4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J4" t="s">
-        <v>21</v>
-      </c>
-      <c r="K4" t="s">
-        <v>13</v>
-      </c>
-      <c r="L4" t="s">
-        <v>9</v>
-      </c>
-      <c r="M4" t="s">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>31</v>
-      </c>
-      <c r="O4" t="s">
-        <v>26</v>
-      </c>
-      <c r="P4" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>16</v>
-      </c>
-      <c r="R4" t="s">
-        <v>14</v>
-      </c>
-      <c r="S4" t="s">
-        <v>17</v>
-      </c>
-      <c r="T4" t="s">
-        <v>45</v>
-      </c>
-      <c r="U4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B5" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C5" t="s">
         <v>6</v>
       </c>
       <c r="D5" t="s">
-        <v>78</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
         <v>28</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="G5" t="s">
         <v>15</v>
@@ -1513,18 +1462,6 @@
       </c>
       <c r="K5" t="s">
         <v>22</v>
-      </c>
-      <c r="L5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M5" t="s">
-        <v>75</v>
-      </c>
-      <c r="N5" t="s">
-        <v>76</v>
-      </c>
-      <c r="O5" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
